--- a/7/2/3/2/Cuotas de fondos mutuos e inversión distintas al mercado monetario 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/2/Cuotas de fondos mutuos e inversión distintas al mercado monetario 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3846,10 +3849,10 @@
         <v>83</v>
       </c>
       <c r="B74">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C74">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D74">
         <v>35</v>
@@ -3858,7 +3861,7 @@
         <v>462</v>
       </c>
       <c r="F74">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3876,13 +3879,57 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="M74">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="N74">
         <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>-2842</v>
+      </c>
+      <c r="C75">
+        <v>726</v>
+      </c>
+      <c r="D75">
+        <v>61</v>
+      </c>
+      <c r="E75">
+        <v>-3628</v>
+      </c>
+      <c r="F75">
+        <v>-527</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>-130</v>
+      </c>
+      <c r="J75">
+        <v>112</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-146</v>
+      </c>
+      <c r="M75">
+        <v>-311</v>
+      </c>
+      <c r="N75">
+        <v>-53</v>
       </c>
     </row>
   </sheetData>
